--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
@@ -402,13 +402,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42633.874942129631</v>
+        <v>42634.66684027778</v>
       </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>108.67</v>
+        <v>108.42</v>
       </c>
       <c r="G2" s="1" t="b">
         <v>1</v>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,7 +371,7 @@
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -404,14 +404,28 @@
       <c r="A2" s="1">
         <v>42634.66684027778</v>
       </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="D2">
         <v>108.42</v>
       </c>
+      <c r="E2">
+        <v>108.91</v>
+      </c>
+      <c r="F2">
+        <v>0.45194613539936812</v>
+      </c>
       <c r="G2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>10045.19</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,14 +404,28 @@
       <c r="A2" s="1">
         <v>42640.548379629632</v>
       </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="D2">
         <v>109</v>
       </c>
+      <c r="E2">
+        <v>106.51</v>
+      </c>
+      <c r="F2">
+        <v>-2.2844036697247661</v>
+      </c>
       <c r="G2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>9771.56</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,30 +402,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42640.548379629632</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
+        <v>42642.48709490741</v>
       </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>109</v>
-      </c>
-      <c r="E2">
-        <v>106.51</v>
-      </c>
-      <c r="F2">
-        <v>-2.2844036697247661</v>
+        <v>107.01</v>
       </c>
       <c r="G2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>9771.56</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
@@ -369,12 +369,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
@@ -363,17 +363,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -404,14 +405,28 @@
       <c r="A2" s="1">
         <v>42642.48709490741</v>
       </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="D2">
         <v>107.01</v>
       </c>
+      <c r="E2">
+        <v>104.06</v>
+      </c>
+      <c r="F2">
+        <v>-2.7567517054480914</v>
+      </c>
       <c r="G2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>9724.32</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/LongTrades/CELG/CELGBagTradeLongHold.xlsx
@@ -369,7 +369,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
@@ -425,8 +425,17 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42654.743738425925</v>
+      </c>
       <c r="C3">
         <v>9724.32</v>
+      </c>
+      <c r="D3">
+        <v>104.43</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
